--- a/report.xlsx
+++ b/report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="95">
   <si>
     <t>order_id</t>
   </si>
@@ -290,6 +290,15 @@
   </si>
   <si>
     <t>Polarized Smoke Square Mens Sunglasses (x3)</t>
+  </si>
+  <si>
+    <t>2024-03-04 14:07:23.902709</t>
+  </si>
+  <si>
+    <t>г. wfsdfsd, ул. sdfsdf, д. 124, кв. 412</t>
+  </si>
+  <si>
+    <t>Crimson Ladies Greenwich Convertible Shoulder Bag (x1), Essentials Quartz (x1)</t>
   </si>
 </sst>
 </file>
@@ -621,7 +630,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1349,6 +1358,29 @@
         <v>210</v>
       </c>
     </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>33</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32" t="s">
+        <v>93</v>
+      </c>
+      <c r="F32" t="s">
+        <v>94</v>
+      </c>
+      <c r="G32">
+        <v>14915</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/report.xlsx
+++ b/report.xlsx
@@ -14,69 +14,55 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
-  <si>
-    <t>Айди товара</t>
-  </si>
-  <si>
-    <t>Название</t>
-  </si>
-  <si>
-    <t>В наличии</t>
-  </si>
-  <si>
-    <t>Продано в период с 2024-03-12 по 2024-03-13</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Отчет №22738
+Пополнения наличия с 2024-03-03 по 2024-03-22</t>
+  </si>
+  <si>
+    <t>Товар</t>
+  </si>
+  <si>
+    <t>Количество</t>
+  </si>
+  <si>
+    <t>Polarized Smoke Square Mens Sunglasses</t>
+  </si>
+  <si>
+    <t>Black High-Top 100 Alce Belted Leather Sneaker</t>
   </si>
   <si>
     <t xml:space="preserve">HydroConquest Мужские автоматические часы с синим циферблатом </t>
   </si>
   <si>
-    <t>Polarized Smoke Square Mens Sunglasses</t>
-  </si>
-  <si>
-    <t>Unisex Club De Nuit Untold EDP</t>
-  </si>
-  <si>
-    <t>Datejust 36 Automatic Diamond Mens Watch</t>
-  </si>
-  <si>
-    <t>Essentials Quartz</t>
-  </si>
-  <si>
-    <t>Ladies Dark Brown Penberth Shearling Single-Breasted Coat</t>
-  </si>
-  <si>
-    <t>Очки солнцезащитные GG1372S 001 56</t>
-  </si>
-  <si>
-    <t>Gold Plated Ballpoint Pen and Cufflink Set</t>
-  </si>
-  <si>
-    <t>Ladies Pink Millenia Necklace</t>
-  </si>
-  <si>
-    <t>Мужские часы Tradition с автоматическим антрацитовым циферблатом</t>
-  </si>
-  <si>
-    <t>Crimson Ladies Greenwich Convertible Shoulder Bag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seamaster Railmaster Автоматические мужские часы </t>
-  </si>
-  <si>
-    <t>Black High-Top 100 Alce Belted Leather Sneaker</t>
-  </si>
-  <si>
-    <t>Silver Engraved Heart Motif Trademark Bracelet</t>
+    <t>ООО "Joma Shop"</t>
+  </si>
+  <si>
+    <t>М.П.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -91,7 +77,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -99,12 +85,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,240 +422,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="67.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="65.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
+      <c r="B4" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B6" s="3">
         <v>4</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>42</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>10</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <v>11</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
-        <v>6</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13">
-        <v>12</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15">
-        <v>3</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
-        <v>3</v>
-      </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16">
-        <v>9</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
